--- a/data/Air_drag_sample.xlsx
+++ b/data/Air_drag_sample.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Apac.corpdir.net\a575\public\_Projects\CO2_WS\20211101_vehicle_long_cal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dhilitp\GUI\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
   <si>
     <t>Data number</t>
     <phoneticPr fontId="0"/>
@@ -107,13 +107,37 @@
   </si>
   <si>
     <t>Sample</t>
+  </si>
+  <si>
+    <t>TA/PTP</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Fukushima, To Higuch</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>FBAV0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Narrow/Single</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Test procedure: JH25 Coast down
+Witness test result(Official value)
+Corrected at standard atmosphere(293K[20 degC], 101.3kPa)
+H: 1.987m W: 1.689m
+MY20 Face</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,8 +150,20 @@
       <color theme="1"/>
       <name val="CorpoS"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="CorpoS"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -146,8 +182,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -252,11 +294,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -289,6 +344,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -573,14 +637,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.6640625" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="38.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="18.6640625" style="1"/>
+    <col min="2" max="5" width="18.6640625" style="1"/>
+    <col min="6" max="6" width="28.109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="18.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" ht="21.6" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -755,7 +821,9 @@
       <c r="E3" s="9">
         <v>20211216</v>
       </c>
-      <c r="F3" s="9"/>
+      <c r="F3" s="9">
+        <v>20220425</v>
+      </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
@@ -818,7 +886,9 @@
       <c r="E4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
@@ -881,7 +951,9 @@
       <c r="E5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
@@ -944,7 +1016,9 @@
       <c r="E6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -1007,7 +1081,9 @@
       <c r="E7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -1070,7 +1146,9 @@
       <c r="E8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -1133,7 +1211,9 @@
       <c r="E9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -1196,7 +1276,9 @@
       <c r="E10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="4"/>
+      <c r="F10" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -1259,7 +1341,9 @@
       <c r="E11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="5"/>
+      <c r="F11" s="13" t="s">
+        <v>29</v>
+      </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -1322,7 +1406,9 @@
       <c r="E12" s="4">
         <v>0.17799999999999999</v>
       </c>
-      <c r="F12" s="4"/>
+      <c r="F12" s="14">
+        <v>8.8300000000000003E-2</v>
+      </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -1371,5 +1457,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>